--- a/Planejamento/Gestão de Riscos.xlsx
+++ b/Planejamento/Gestão de Riscos.xlsx
@@ -5,30 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade\Matérias\Gestão de Projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DA9792-7EBB-4A54-AB4E-1BB88D4341DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A66C5A5-0962-4330-BF44-C0E1CB4545E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C9878213-75C6-4402-AE4A-AF46CC284C5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8760" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
-  <si>
-    <t>PROBABILIDADE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Alto</t>
   </si>
@@ -36,9 +34,15 @@
     <t>Médio</t>
   </si>
   <si>
+    <t>Impacto</t>
+  </si>
+  <si>
     <t>Baixo</t>
   </si>
   <si>
+    <t>É considerado alto, quando o risco em questão, provocar mudanças no custo e no prazo do projeto.</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -48,9 +52,6 @@
     <t>Probabilidade</t>
   </si>
   <si>
-    <t>Impacto</t>
-  </si>
-  <si>
     <t>Prioridade</t>
   </si>
   <si>
@@ -72,22 +73,13 @@
     <t>Contingência</t>
   </si>
   <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
-    <t>Custo e prazo</t>
-  </si>
-  <si>
-    <t>Tempo</t>
-  </si>
-  <si>
-    <t>Patrocinador</t>
+    <t>Necessidade de outro investidor no segundo mês</t>
   </si>
   <si>
     <t>Mitigar</t>
   </si>
   <si>
-    <t>Dividir o preço do investimento para mais investidores</t>
+    <t>Dividir o preço do investimento, para que o mesmo possa ser atendido por mais investidores.</t>
   </si>
   <si>
     <t>Gestor de Projeto</t>
@@ -99,41 +91,40 @@
     <t>Em andamento</t>
   </si>
   <si>
-    <t>Cancelamento</t>
+    <t>Caso o risco se concretize o projeto deverá ser cancelado.</t>
+  </si>
+  <si>
+    <t>É considerado médio, quando o risco em questão, afetar o prazo do projeto.</t>
+  </si>
+  <si>
+    <t>É considerado baixo, quando o risco em questão, provocar mudanças no planejamento do projeto.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -141,10 +132,61 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,26 +195,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFD320"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF9653B"/>
+        <bgColor rgb="FFFA7D00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -196,54 +260,82 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -252,31 +344,7 @@
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -284,70 +352,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
-    <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
-    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
+    <cellStyle name="Texto Explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF9653B"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF66FF66"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFA7D00"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF9900CC"/>
+      <color rgb="FFCC66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -655,346 +940,564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8711E2-8EFE-4195-965F-FD90E44FD5C8}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="22.7109375"/>
+    <col min="3" max="6" width="15.140625"/>
+    <col min="7" max="7" width="12.140625"/>
+    <col min="8" max="8" width="15.140625"/>
+    <col min="9" max="9" width="13.5703125"/>
+    <col min="10" max="10" width="10.85546875"/>
+    <col min="11" max="11" width="13.85546875"/>
+    <col min="12" max="12" width="10"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125"/>
+    <col min="15" max="15" width="10.28515625"/>
+    <col min="16" max="16" width="10.42578125"/>
+    <col min="17" max="17" width="13.85546875"/>
+    <col min="18" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:15" ht="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="H11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="1025" width="16.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="F1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="G1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="H1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="I1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="J1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="K1" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="1:11" ht="0.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="126" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="14">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="126.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="G6" s="18">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G9" s="6"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="126" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>4</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G11" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G13" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="11">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="M2:M5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>